--- a/msat_spp_final.xlsx
+++ b/msat_spp_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialmalabag/Dropbox/Extra/Summer Internship/Marine.Genetic.Diversity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialmalabag/Dropbox/Extra/marial_diversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9493FFB5-C9C9-764F-AB82-63E5C65A0A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{860D7B2E-37DA-394B-8A73-B03341BAC627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9560" windowWidth="28800" windowHeight="8120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="msat_spp_final" sheetId="1" r:id="rId1"/>
@@ -3462,8 +3462,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3822,9 +3822,9 @@
   <dimension ref="A1:T383"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C226" sqref="C226"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3984,7 +3984,7 @@
       <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>935</v>
       </c>
       <c r="M3" t="s">
@@ -4108,7 +4108,7 @@
       <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>937</v>
       </c>
       <c r="M5" t="s">
@@ -4149,10 +4149,10 @@
       <c r="D6">
         <v>40</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.87</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>940</v>
       </c>
       <c r="G6" t="s">
@@ -4170,7 +4170,7 @@
       <c r="K6" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>938</v>
       </c>
       <c r="M6" t="s">
@@ -4232,7 +4232,7 @@
       <c r="K7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>939</v>
       </c>
       <c r="M7" t="s">
@@ -4341,10 +4341,10 @@
       <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>10.55</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>10.55</v>
       </c>
       <c r="I9" t="s">
@@ -8101,7 +8101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>

--- a/msat_spp_final.xlsx
+++ b/msat_spp_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialmalabag/Dropbox/Extra/marial_diversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{860D7B2E-37DA-394B-8A73-B03341BAC627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F164A1D-8914-694E-B849-31EB6DFD426D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5164" uniqueCount="980">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5162" uniqueCount="980">
   <si>
     <t>spp</t>
   </si>
@@ -3821,10 +3821,11 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T383"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="9" ySplit="14" topLeftCell="R15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3943,8 +3944,8 @@
       <c r="R2">
         <v>2.64</v>
       </c>
-      <c r="S2" t="s">
-        <v>21</v>
+      <c r="S2">
+        <v>31088</v>
       </c>
       <c r="T2">
         <v>2.64</v>
@@ -4005,8 +4006,8 @@
       <c r="R3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" t="s">
-        <v>21</v>
+      <c r="S3">
+        <v>400</v>
       </c>
       <c r="T3" t="s">
         <v>21</v>
@@ -4400,8 +4401,8 @@
       <c r="E10">
         <v>34</v>
       </c>
-      <c r="F10">
-        <v>6600</v>
+      <c r="F10" t="s">
+        <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
@@ -5056,8 +5057,8 @@
       <c r="R20" t="s">
         <v>20</v>
       </c>
-      <c r="S20" t="s">
-        <v>21</v>
+      <c r="S20">
+        <v>18083</v>
       </c>
       <c r="T20" t="s">
         <v>21</v>
@@ -8101,7 +8102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -27571,5 +27572,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/msat_spp_final.xlsx
+++ b/msat_spp_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialmalabag/Dropbox/Extra/marial_diversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F164A1D-8914-694E-B849-31EB6DFD426D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{067AD7D0-1556-4742-AE6B-A52D2B219636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3822,10 +3822,7 @@
   <dimension ref="A1:T383"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="9" ySplit="14" topLeftCell="R15" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/msat_spp_final.xlsx
+++ b/msat_spp_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialmalabag/Dropbox/Extra/marial_diversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{067AD7D0-1556-4742-AE6B-A52D2B219636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{79806FCA-2FDE-8644-9054-A9AE8E73886B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="msat_spp_final" sheetId="1" r:id="rId1"/>
@@ -3822,7 +3822,7 @@
   <dimension ref="A1:T383"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/msat_spp_final.xlsx
+++ b/msat_spp_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialmalabag/Dropbox/Extra/marial_diversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{79806FCA-2FDE-8644-9054-A9AE8E73886B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9535A0BA-236B-984E-A724-A837827FA099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22700" yWindow="-2040" windowWidth="22700" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="msat_spp_final" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5162" uniqueCount="980">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5170" uniqueCount="980">
   <si>
     <t>spp</t>
   </si>
@@ -2848,9 +2848,6 @@
     <t>3.2 months</t>
   </si>
   <si>
-    <t>2.005E+0.6</t>
-  </si>
-  <si>
     <t>2 months</t>
   </si>
   <si>
@@ -2966,12 +2963,18 @@
   </si>
   <si>
     <t>6.5 months</t>
+  </si>
+  <si>
+    <t>NAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0E+00"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3296,7 +3299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <start/>
       <end/>
@@ -3411,6 +3414,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color indexed="10"/>
+      </start>
+      <end style="thin">
+        <color indexed="10"/>
+      </end>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3456,7 +3474,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3464,6 +3482,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3822,10 +3843,16 @@
   <dimension ref="A1:T383"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <pane xSplit="8" ySplit="13" topLeftCell="R25" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -3902,8 +3929,8 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1">
-        <v>200000</v>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G2">
         <v>10.1</v>
@@ -3941,8 +3968,8 @@
       <c r="R2">
         <v>2.64</v>
       </c>
-      <c r="S2">
-        <v>31088</v>
+      <c r="S2" s="5">
+        <v>200000</v>
       </c>
       <c r="T2">
         <v>2.64</v>
@@ -3964,8 +3991,8 @@
       <c r="E3">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>3000</v>
+      <c r="F3" t="s">
+        <v>20</v>
       </c>
       <c r="G3">
         <v>22</v>
@@ -4150,8 +4177,8 @@
       <c r="E6" s="3">
         <v>0.87</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>940</v>
+      <c r="F6" s="3">
+        <v>1811434</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
@@ -4460,8 +4487,8 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11">
-        <v>192145</v>
+      <c r="F11" t="s">
+        <v>20</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -4500,7 +4527,7 @@
         <v>1.7</v>
       </c>
       <c r="S11">
-        <v>192145</v>
+        <v>100000</v>
       </c>
       <c r="T11">
         <v>1.7</v>
@@ -4541,7 +4568,7 @@
         <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M12" t="s">
         <v>51</v>
@@ -4600,7 +4627,7 @@
         <v>56</v>
       </c>
       <c r="L13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M13" t="s">
         <v>22</v>
@@ -4662,7 +4689,7 @@
         <v>29</v>
       </c>
       <c r="L14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="M14" t="s">
         <v>22</v>
@@ -4724,7 +4751,7 @@
         <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M15" t="s">
         <v>22</v>
@@ -4767,8 +4794,8 @@
       <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="F16">
-        <v>8774.5</v>
+      <c r="F16" t="s">
+        <v>20</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -4806,8 +4833,8 @@
       <c r="R16">
         <v>0.47199999999999998</v>
       </c>
-      <c r="S16">
-        <v>8774.5</v>
+      <c r="S16" t="s">
+        <v>979</v>
       </c>
       <c r="T16">
         <v>0.47199999999999998</v>
@@ -4910,7 +4937,7 @@
         <v>79</v>
       </c>
       <c r="L18" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M18" t="s">
         <v>22</v>
@@ -5034,7 +5061,7 @@
         <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M20" t="s">
         <v>22</v>
@@ -5263,8 +5290,8 @@
       <c r="E24">
         <v>30</v>
       </c>
-      <c r="F24">
-        <v>215</v>
+      <c r="F24" t="s">
+        <v>20</v>
       </c>
       <c r="G24" t="s">
         <v>78</v>
@@ -5302,8 +5329,8 @@
       <c r="R24" t="s">
         <v>20</v>
       </c>
-      <c r="S24">
-        <v>215</v>
+      <c r="S24" t="s">
+        <v>979</v>
       </c>
       <c r="T24" t="s">
         <v>21</v>
@@ -5344,7 +5371,7 @@
         <v>83</v>
       </c>
       <c r="L25" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M25" t="s">
         <v>22</v>
@@ -5636,7 +5663,7 @@
         <v>20</v>
       </c>
       <c r="F30">
-        <v>415</v>
+        <v>500</v>
       </c>
       <c r="G30" t="s">
         <v>20</v>
@@ -5654,7 +5681,7 @@
         <v>20</v>
       </c>
       <c r="L30" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="M30" t="s">
         <v>22</v>
@@ -5675,7 +5702,7 @@
         <v>20</v>
       </c>
       <c r="S30">
-        <v>415</v>
+        <v>500</v>
       </c>
       <c r="T30" t="s">
         <v>21</v>
@@ -5883,8 +5910,8 @@
       <c r="E34">
         <v>5</v>
       </c>
-      <c r="F34">
-        <v>22000</v>
+      <c r="F34" t="s">
+        <v>20</v>
       </c>
       <c r="G34">
         <v>5.5</v>
@@ -5922,8 +5949,8 @@
       <c r="R34">
         <v>2.5</v>
       </c>
-      <c r="S34">
-        <v>22000</v>
+      <c r="S34" t="s">
+        <v>20</v>
       </c>
       <c r="T34">
         <v>2.5</v>
@@ -6150,7 +6177,7 @@
         <v>29</v>
       </c>
       <c r="L38" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="M38" t="s">
         <v>22</v>
@@ -6274,7 +6301,7 @@
         <v>121</v>
       </c>
       <c r="L40" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M40" t="s">
         <v>22</v>
@@ -6832,7 +6859,7 @@
         <v>121</v>
       </c>
       <c r="L49" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="M49" t="s">
         <v>51</v>
@@ -7018,7 +7045,7 @@
         <v>29</v>
       </c>
       <c r="L52" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="M52" t="s">
         <v>51</v>
@@ -7266,7 +7293,7 @@
         <v>29</v>
       </c>
       <c r="L56" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="M56" t="s">
         <v>22</v>
@@ -7328,7 +7355,7 @@
         <v>29</v>
       </c>
       <c r="L57" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M57" t="s">
         <v>22</v>
@@ -7700,7 +7727,7 @@
         <v>29</v>
       </c>
       <c r="L63" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="M63" t="s">
         <v>22</v>
@@ -7886,7 +7913,7 @@
         <v>20</v>
       </c>
       <c r="L66" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M66" t="s">
         <v>22</v>
@@ -8134,7 +8161,7 @@
         <v>79</v>
       </c>
       <c r="L70" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M70" t="s">
         <v>22</v>
@@ -8196,7 +8223,7 @@
         <v>29</v>
       </c>
       <c r="L71" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M71" t="s">
         <v>22</v>
@@ -8320,7 +8347,7 @@
         <v>20</v>
       </c>
       <c r="L73" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M73" t="s">
         <v>22</v>
@@ -8382,7 +8409,7 @@
         <v>121</v>
       </c>
       <c r="L74" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="M74" t="s">
         <v>22</v>
@@ -8692,7 +8719,7 @@
         <v>20</v>
       </c>
       <c r="L79" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M79" t="s">
         <v>22</v>
@@ -8754,7 +8781,7 @@
         <v>20</v>
       </c>
       <c r="L80" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M80" t="s">
         <v>22</v>
@@ -8940,7 +8967,7 @@
         <v>20</v>
       </c>
       <c r="L83" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="M83" t="s">
         <v>20</v>
@@ -9126,7 +9153,7 @@
         <v>20</v>
       </c>
       <c r="L86" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="M86" t="s">
         <v>22</v>
@@ -9436,7 +9463,7 @@
         <v>29</v>
       </c>
       <c r="L91" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="M91" t="s">
         <v>22</v>
@@ -9560,7 +9587,7 @@
         <v>29</v>
       </c>
       <c r="L93" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="M93" t="s">
         <v>22</v>
@@ -9622,7 +9649,7 @@
         <v>29</v>
       </c>
       <c r="L94" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M94" t="s">
         <v>22</v>
@@ -9746,7 +9773,7 @@
         <v>29</v>
       </c>
       <c r="L96" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M96" t="s">
         <v>22</v>
@@ -9932,7 +9959,7 @@
         <v>20</v>
       </c>
       <c r="L99" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M99" t="s">
         <v>22</v>
@@ -10056,7 +10083,7 @@
         <v>267</v>
       </c>
       <c r="L101" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="M101" t="s">
         <v>22</v>
@@ -10242,7 +10269,7 @@
         <v>20</v>
       </c>
       <c r="L104" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M104" t="s">
         <v>22</v>
@@ -10304,7 +10331,7 @@
         <v>121</v>
       </c>
       <c r="L105" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="M105" t="s">
         <v>22</v>
@@ -11172,7 +11199,7 @@
         <v>29</v>
       </c>
       <c r="L119" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="M119" t="s">
         <v>22</v>
@@ -11296,7 +11323,7 @@
         <v>29</v>
       </c>
       <c r="L121" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M121" t="s">
         <v>22</v>
@@ -11482,7 +11509,7 @@
         <v>29</v>
       </c>
       <c r="L124" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="M124" t="s">
         <v>22</v>
@@ -11916,7 +11943,7 @@
         <v>29</v>
       </c>
       <c r="L131" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="M131" t="s">
         <v>22</v>
@@ -11978,7 +12005,7 @@
         <v>29</v>
       </c>
       <c r="L132" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="M132" t="s">
         <v>22</v>
@@ -12040,7 +12067,7 @@
         <v>29</v>
       </c>
       <c r="L133" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="M133" t="s">
         <v>22</v>
@@ -12102,7 +12129,7 @@
         <v>29</v>
       </c>
       <c r="L134" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M134" t="s">
         <v>51</v>
@@ -12350,7 +12377,7 @@
         <v>20</v>
       </c>
       <c r="L138" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M138" t="s">
         <v>20</v>
@@ -12412,7 +12439,7 @@
         <v>29</v>
       </c>
       <c r="L139" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="M139" t="s">
         <v>22</v>
@@ -12598,7 +12625,7 @@
         <v>29</v>
       </c>
       <c r="L142" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M142" t="s">
         <v>22</v>
@@ -12846,7 +12873,7 @@
         <v>20</v>
       </c>
       <c r="L146" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M146" t="s">
         <v>22</v>
@@ -13156,7 +13183,7 @@
         <v>29</v>
       </c>
       <c r="L151" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="M151" t="s">
         <v>372</v>
@@ -13218,7 +13245,7 @@
         <v>20</v>
       </c>
       <c r="L152" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="M152" t="s">
         <v>372</v>
@@ -13404,7 +13431,7 @@
         <v>29</v>
       </c>
       <c r="L155" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M155" t="s">
         <v>22</v>
@@ -13776,7 +13803,7 @@
         <v>20</v>
       </c>
       <c r="L161" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M161" t="s">
         <v>22</v>
@@ -13838,7 +13865,7 @@
         <v>20</v>
       </c>
       <c r="L162" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M162" t="s">
         <v>22</v>
@@ -13900,7 +13927,7 @@
         <v>121</v>
       </c>
       <c r="L163" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="M163" t="s">
         <v>22</v>
@@ -13962,7 +13989,7 @@
         <v>20</v>
       </c>
       <c r="L164" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M164" t="s">
         <v>20</v>
@@ -14148,7 +14175,7 @@
         <v>29</v>
       </c>
       <c r="L167" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="M167" t="s">
         <v>22</v>
@@ -14210,7 +14237,7 @@
         <v>29</v>
       </c>
       <c r="L168" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M168" t="s">
         <v>22</v>
@@ -14272,7 +14299,7 @@
         <v>29</v>
       </c>
       <c r="L169" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M169" t="s">
         <v>22</v>
@@ -14334,7 +14361,7 @@
         <v>20</v>
       </c>
       <c r="L170" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="M170" t="s">
         <v>22</v>
@@ -14458,7 +14485,7 @@
         <v>421</v>
       </c>
       <c r="L172" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M172" t="s">
         <v>22</v>
@@ -14520,7 +14547,7 @@
         <v>121</v>
       </c>
       <c r="L173" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="M173" t="s">
         <v>22</v>
@@ -14582,7 +14609,7 @@
         <v>429</v>
       </c>
       <c r="L174" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="M174" t="s">
         <v>22</v>
@@ -14768,7 +14795,7 @@
         <v>29</v>
       </c>
       <c r="L177" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="M177" t="s">
         <v>22</v>
@@ -14954,7 +14981,7 @@
         <v>20</v>
       </c>
       <c r="L180" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="M180" t="s">
         <v>22</v>
@@ -15016,7 +15043,7 @@
         <v>20</v>
       </c>
       <c r="L181" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="M181" t="s">
         <v>22</v>
@@ -15078,7 +15105,7 @@
         <v>20</v>
       </c>
       <c r="L182" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="M182" t="s">
         <v>22</v>
@@ -15140,7 +15167,7 @@
         <v>20</v>
       </c>
       <c r="L183" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M183" t="s">
         <v>22</v>
@@ -15202,7 +15229,7 @@
         <v>104</v>
       </c>
       <c r="L184" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M184" t="s">
         <v>22</v>
@@ -15326,7 +15353,7 @@
         <v>20</v>
       </c>
       <c r="L186" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="M186" t="s">
         <v>22</v>
@@ -15388,7 +15415,7 @@
         <v>429</v>
       </c>
       <c r="L187" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M187" t="s">
         <v>22</v>
@@ -15574,7 +15601,7 @@
         <v>56</v>
       </c>
       <c r="L190" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M190" t="s">
         <v>22</v>
@@ -15698,7 +15725,7 @@
         <v>29</v>
       </c>
       <c r="L192" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M192" t="s">
         <v>22</v>
@@ -15760,7 +15787,7 @@
         <v>20</v>
       </c>
       <c r="L193" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="M193" t="s">
         <v>22</v>
@@ -15822,7 +15849,7 @@
         <v>121</v>
       </c>
       <c r="L194" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="M194" t="s">
         <v>22</v>
@@ -15946,7 +15973,7 @@
         <v>29</v>
       </c>
       <c r="L196" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M196" t="s">
         <v>22</v>
@@ -16008,7 +16035,7 @@
         <v>104</v>
       </c>
       <c r="L197" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="M197" t="s">
         <v>22</v>
@@ -16070,7 +16097,7 @@
         <v>29</v>
       </c>
       <c r="L198" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M198" t="s">
         <v>22</v>
@@ -16132,7 +16159,7 @@
         <v>20</v>
       </c>
       <c r="L199" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M199" t="s">
         <v>22</v>
@@ -16256,7 +16283,7 @@
         <v>20</v>
       </c>
       <c r="L201" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="M201" t="s">
         <v>22</v>
@@ -16318,7 +16345,7 @@
         <v>20</v>
       </c>
       <c r="L202" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="M202" t="s">
         <v>22</v>
@@ -16504,7 +16531,7 @@
         <v>20</v>
       </c>
       <c r="L205" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="M205" t="s">
         <v>22</v>
@@ -16814,7 +16841,7 @@
         <v>29</v>
       </c>
       <c r="L210" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="M210" t="s">
         <v>22</v>
@@ -17310,7 +17337,7 @@
         <v>29</v>
       </c>
       <c r="L218" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="M218" t="s">
         <v>22</v>
@@ -17434,7 +17461,7 @@
         <v>29</v>
       </c>
       <c r="L220" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M220" t="s">
         <v>22</v>
@@ -17682,7 +17709,7 @@
         <v>29</v>
       </c>
       <c r="L224" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="M224" t="s">
         <v>22</v>

--- a/msat_spp_final.xlsx
+++ b/msat_spp_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialmalabag/Dropbox/Extra/marial_diversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9535A0BA-236B-984E-A724-A837827FA099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4520DDD5-9746-E443-8943-F95FF16A8060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22700" yWindow="-2040" windowWidth="22700" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
